--- a/state_machines/コンテキスト遷移表.xlsx
+++ b/state_machines/コンテキスト遷移表.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\work\state_machines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/work/misc/state_machines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65762D9C-61DF-41DA-9431-F18435C4602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BEC170-9FEA-7042-9DC0-0ABB37B7D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SM" sheetId="2" r:id="rId1"/>
-    <sheet name="TransitionTable（TT）" sheetId="1" r:id="rId2"/>
+    <sheet name="TransitionTable（TT）" sheetId="1" r:id="rId1"/>
+    <sheet name="VRSM" sheetId="2" r:id="rId2"/>
+    <sheet name="GrammarSM" sheetId="3" r:id="rId3"/>
+    <sheet name="SharedStore" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="154">
   <si>
     <t>Intent</t>
     <phoneticPr fontId="1"/>
@@ -457,10 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ready</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PreSession</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -490,10 +488,6 @@
   </si>
   <si>
     <t>SubState&lt;InitState&gt;→</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VRState:Readyへ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -721,12 +715,149 @@
     <t>External::ASREventNotify</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Generating</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Publisher</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Scriber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GrammarSM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VRSM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VRState:Idleへ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoInitialized, Idle, Session</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoInitialized</t>
+  </si>
+  <si>
+    <t>SessionStatus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SessionStatusをsubscribeする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SharedState::ChangeNotify(SessionStatus)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MainState&lt;GrammarState&gt;→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SessionStatusをcontextへ保持
+IF SessionStatusがIdleかSession
+  GrammarState:Idleへ</t>
+    <rPh sb="22" eb="24">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SessionStatusをcontextへ保持
+</t>
+    <rPh sb="22" eb="24">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SessionStatusをcontextへ保持
+IF SessionStatus が Session
+  Grammar生成を中断
+  生成待ち キューの先頭への追加
+</t>
+    <rPh sb="22" eb="24">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>♨️</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>External::GrammarCreated(Success)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DE.requestGrammarInfo()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FetchingGrammarInfo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>External::GrammarInfoAcquired(Success(GrammarInfo)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>External::GrammarUpdate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生成待ちキューへ登録
+※判定がいる。</t>
+    <rPh sb="0" eb="3">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,9 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -830,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,469 +1241,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.1640625" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501FCD4F-E72C-40A9-8EA7-32FA4F837521}">
   <dimension ref="A2:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="44.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="34.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.75" style="2" customWidth="1"/>
-    <col min="15" max="18" width="23.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" style="2" customWidth="1"/>
+    <col min="15" max="18" width="23.33203125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="37.5">
+    <row r="4" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="H4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="75">
+    </row>
+    <row r="5" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="37.5">
-      <c r="B7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="37.5">
-      <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="37.5">
-      <c r="B10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="37.5">
-      <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="37.5">
-      <c r="B12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="93.75">
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="B14" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1584,579 +2292,236 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L24"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C11C582-7E43-BB41-81E3-C9202039A261}">
+  <dimension ref="A3:G14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="53.25" customWidth="1"/>
-    <col min="8" max="8" width="45.25" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="29.625" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="52" style="2" customWidth="1"/>
+    <col min="3" max="5" width="39.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="45" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F154EFF-4103-EE44-97DE-F00AABC60B19}">
+  <dimension ref="B2:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>